--- a/Mifos Automation Excels/Client/2561-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-AMT-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2561-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-AMT-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -152,12 +147,6 @@
     <t>repaymenttransactiondate</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -203,13 +192,19 @@
     <t>L204</t>
   </si>
   <si>
-    <t>$ 543.84</t>
+    <t>D</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
+  </si>
+  <si>
+    <t>$ 549.81</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -312,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -358,6 +353,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,7 +445,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,26 +478,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,23 +513,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -886,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,41 +1541,43 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>4839</v>
+        <v>576</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
@@ -1645,7 +1611,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>4835</v>
+        <v>574</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
@@ -1679,7 +1645,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>4833</v>
+        <v>572</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>22</v>
@@ -1713,7 +1679,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>4840</v>
+        <v>577</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>22</v>
@@ -1722,16 +1688,16 @@
         <v>42005</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="6">
-        <v>543.84</v>
+        <v>549.80999999999995</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
       </c>
       <c r="G5" s="6">
-        <v>543.84</v>
+        <v>549.80999999999995</v>
       </c>
       <c r="H5" s="6">
         <v>0</v>
@@ -1747,7 +1713,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>4830</v>
+        <v>570</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>22</v>
@@ -1776,8 +1742,8 @@
       <c r="J6" s="8">
         <v>5000</v>
       </c>
-      <c r="K6"/>
-      <c r="L6"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1857,7 +1823,7 @@
         <v>33</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="13"/>
     </row>
@@ -1885,7 +1851,7 @@
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +1920,7 @@
         <v>42036</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>31</v>
@@ -1967,7 +1933,7 @@
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1981,7 +1947,7 @@
         <v>42036</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>31</v>
@@ -1990,11 +1956,11 @@
         <v>30</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2008,7 +1974,7 @@
         <v>42036</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>31</v>
@@ -2020,7 +1986,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I4" s="15"/>
     </row>
@@ -2102,7 +2068,7 @@
         <v>33</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="13"/>
     </row>
@@ -2130,7 +2096,7 @@
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2200,7 +2166,7 @@
         <v>42064</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>31</v>
@@ -2213,7 +2179,7 @@
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2227,7 +2193,7 @@
         <v>42064</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>31</v>
@@ -2236,11 +2202,11 @@
         <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2254,7 +2220,7 @@
         <v>42064</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>31</v>
@@ -2266,7 +2232,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I4" s="18"/>
     </row>
@@ -2279,8 +2245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,7 +2291,7 @@
         <v>42005</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>31</v>
@@ -2334,9 +2300,9 @@
         <v>30</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>58</v>
       </c>
       <c r="I2" s="6"/>
@@ -2352,7 +2318,7 @@
         <v>42005</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>35</v>
@@ -2364,11 +2330,12 @@
         <v>36</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="22" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>